--- a/docs/dict/place_ready.xlsx
+++ b/docs/dict/place_ready.xlsx
@@ -10,12 +10,11 @@
     <sheet name="place" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>Населенный пункт</t>
   </si>
@@ -95,9 +94,6 @@
     <t>Варваровка</t>
   </si>
   <si>
-    <t>Варенековская</t>
-  </si>
-  <si>
     <t>Васильевка</t>
   </si>
   <si>
@@ -204,9 +200,6 @@
   </si>
   <si>
     <t>Кабардинка</t>
-  </si>
-  <si>
-    <t>Камчатка</t>
   </si>
   <si>
     <t>Капустино</t>
@@ -786,9 +779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:IW132"/>
+  <dimension ref="A2:IW131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -987,7 +982,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +998,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1038,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1046,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,20 +1054,20 @@
         <v>35</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>1.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1080,7 +1075,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -1088,7 +1083,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -1096,7 +1091,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
         <v>4</v>
@@ -1104,7 +1099,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
@@ -1112,7 +1107,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -1120,7 +1115,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
@@ -1128,7 +1123,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -1136,7 +1131,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1144,7 +1139,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
@@ -1152,7 +1147,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -1160,7 +1155,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -1168,7 +1163,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>4</v>
@@ -1176,7 +1171,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -1184,7 +1179,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -1192,7 +1187,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
@@ -1200,7 +1195,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -1208,7 +1203,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -1216,7 +1211,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>2</v>
@@ -1224,7 +1219,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -1232,7 +1227,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -1240,7 +1235,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
@@ -1248,7 +1243,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -1256,7 +1251,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -1264,7 +1259,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1">
         <v>4</v>
@@ -1272,7 +1267,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1">
         <v>2</v>
@@ -1280,15 +1275,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -1296,23 +1291,23 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
@@ -1320,23 +1315,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -1344,31 +1339,31 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -1376,15 +1371,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
@@ -1392,15 +1387,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1">
         <v>3</v>
@@ -1408,15 +1403,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -1424,7 +1419,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -1432,15 +1427,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -1448,15 +1443,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1">
         <v>3</v>
@@ -1464,71 +1459,71 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
@@ -1536,7 +1531,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -1544,47 +1539,47 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
@@ -1592,31 +1587,31 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" s="1">
         <v>3</v>
@@ -1624,15 +1619,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1">
         <v>4</v>
@@ -1640,7 +1635,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1">
         <v>4</v>
@@ -1648,7 +1643,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1">
         <v>4</v>
@@ -1656,15 +1651,15 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -1672,7 +1667,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -1680,15 +1675,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B109" s="1">
         <v>4</v>
@@ -1696,55 +1691,55 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B116" s="1">
         <v>1</v>
@@ -1752,7 +1747,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
@@ -1760,7 +1755,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -1768,39 +1763,39 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B120" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B121" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B122" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
@@ -1808,7 +1803,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B124" s="1">
         <v>1</v>
@@ -1816,7 +1811,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
@@ -1824,23 +1819,23 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B127" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" s="1">
         <v>2</v>
@@ -1848,38 +1843,29 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B129" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B130" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D2:E6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
